--- a/Cap2/Apendice_2_2.xlsx
+++ b/Cap2/Apendice_2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heito/Documents/GitHub/Apendices_Doutorado/Cap2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2248CF53-4B0C-8445-BB49-6EE39FB283D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D669C86-BBB6-994F-9D94-E966010393EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1820" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{02C5CF26-A237-C849-9A80-FC0A556F529C}"/>
   </bookViews>
@@ -5448,7 +5448,7 @@
   <dimension ref="A1:H549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15121,7 +15121,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B55" sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
